--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3221324.946664858</v>
+        <v>3325504.581115928</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>175.9033742411859</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>218.8752234706438</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>96.20906681628156</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7490525989431</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>343.0908049403952</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>318.4070179429945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.77416161796944</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>86.37868314456227</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>6.686682526454283</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>280.6093375835822</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>79.71759724915118</v>
+        <v>76.34924850973032</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>90.69284018412978</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>172.50442708889</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>95.77623638693879</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>204.7007259231375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.5730368512059</v>
+        <v>147.040720618689</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>187.2551470558694</v>
+        <v>35.01782305658526</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>140.7215037338438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>56.03635866484639</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,13 +2845,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>180.0572044082428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>201.6887504327739</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>49.33106662725072</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.00502760852017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>166.8663745188122</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>92.20984583428753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>56.49518623013036</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>132.3950627812467</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4774956074575129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576168</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2740511637357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>98.79136808967741</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.277735635578</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>916.3152186951659</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2788.251321206705</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.251321206705</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.482665936591</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.016907675511</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1671.877575699699</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.8689899442132</v>
+        <v>775.6427484063371</v>
       </c>
       <c r="C4" t="n">
-        <v>612.9328070163064</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D4" t="n">
-        <v>612.9328070163064</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E4" t="n">
-        <v>465.0197134339132</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>318.1297659360029</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915318</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915318</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709431</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.50700567247</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X4" t="n">
-        <v>963.517454774453</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.517454774453</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>866.0512886089841</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>455.0653838193766</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.4781294962288</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699987</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1265943264685</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4883,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.1652223009119</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C10" t="n">
-        <v>441.1652223009119</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D10" t="n">
-        <v>441.1652223009119</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="E10" t="n">
-        <v>293.2521287185187</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="F10" t="n">
-        <v>293.2521287185187</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.8136871311516</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.453616008648</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.378389352846</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.693901146959</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.276731109998</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>1044.287180211981</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.4946010684509</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5263,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.617443831335</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>659.9487421954783</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>3825.054730371253</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>2817.800993781636</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>2817.800993781636</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3445.398957336243</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>4115.110757018135</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2883.976121413757</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4567.185066161252</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4347.583601184193</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4058.508374528391</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3803.823886322504</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3514.406716285544</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3286.417165387526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3065.624586243996</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3093.254426444652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C31" t="n">
-        <v>2924.318243516745</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>2774.20160410441</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522017</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3495.695470418422</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3495.695470418422</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>3274.902891274892</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>2980.381044744765</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072716</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="C37" t="n">
-        <v>815.9830526793647</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4455.23555519765</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4235.634090220591</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3946.558863564789</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3946.558863564789</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>3657.141693527828</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>3429.152142629811</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>3208.359563486281</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3266.742304572424</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
         <v>2419.773435218391</v>
@@ -7357,25 +7359,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444211</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W40" t="n">
-        <v>3897.172899444211</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X40" t="n">
-        <v>3669.183348546194</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y40" t="n">
-        <v>3448.390769402664</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.01954787727</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>3342.537229081859</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,19 +7663,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
   </sheetData>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>126.7126101431585</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>79.633216234938</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.47058471168904</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>47.43691740069053</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.25894333073137</v>
+        <v>32.79125956324827</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>99.2678512807216</v>
+        <v>251.5051752800057</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.34558267474665</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>145.8014946027472</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>124.9899273367982</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>106.4657939283482</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.89590291932086</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.1599114828324</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>75.0369752643403</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>92.12028678808198</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>47.43691740069059</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.1071577446373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>34.97276993489209</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>126.9182872993597</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698273.4890367516</v>
+        <v>698273.4890367517</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698273.4890367516</v>
+        <v>698273.4890367517</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26439,10 +26441,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26457,7 +26459,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293116</v>
+        <v>-789924.9923293121</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982805</v>
+        <v>538819.7533982801</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982802</v>
+        <v>538819.7533982804</v>
       </c>
       <c r="E6" t="n">
-        <v>286900.0839429129</v>
+        <v>286900.0839429124</v>
       </c>
       <c r="F6" t="n">
+        <v>612312.5457502678</v>
+      </c>
+      <c r="G6" t="n">
+        <v>612312.5457502679</v>
+      </c>
+      <c r="H6" t="n">
+        <v>612312.5457502677</v>
+      </c>
+      <c r="I6" t="n">
+        <v>612312.5457502673</v>
+      </c>
+      <c r="J6" t="n">
+        <v>394781.3433529901</v>
+      </c>
+      <c r="K6" t="n">
+        <v>612312.5457502676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>612312.5457502679</v>
+      </c>
+      <c r="M6" t="n">
+        <v>527257.5178147559</v>
+      </c>
+      <c r="N6" t="n">
+        <v>612312.5457502677</v>
+      </c>
+      <c r="O6" t="n">
         <v>612312.5457502682</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="n">
         <v>612312.5457502678</v>
-      </c>
-      <c r="H6" t="n">
-        <v>612312.5457502679</v>
-      </c>
-      <c r="I6" t="n">
-        <v>612312.5457502677</v>
-      </c>
-      <c r="J6" t="n">
-        <v>394781.3433529903</v>
-      </c>
-      <c r="K6" t="n">
-        <v>612312.5457502679</v>
-      </c>
-      <c r="L6" t="n">
-        <v>612312.5457502677</v>
-      </c>
-      <c r="M6" t="n">
-        <v>527257.5178147558</v>
-      </c>
-      <c r="N6" t="n">
-        <v>612312.5457502682</v>
-      </c>
-      <c r="O6" t="n">
-        <v>612312.5457502678</v>
-      </c>
-      <c r="P6" t="n">
-        <v>612312.545750268</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.9726715005255</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>32.11994848825819</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>71.03775428234627</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>13.27675566008509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>67.83092071305822</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.83092071305907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>142.4726594806584</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>139.3309722444749</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>358.5862092445533</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>101.3210324886796</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>86.30821100987704</v>
+        <v>89.67655974929791</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>144.237359508534</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927443</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>393.390434552222</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M30" t="n">
-        <v>667.8124403339918</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>638.06652778494</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N45" t="n">
-        <v>403.8524967138025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.395920534175052</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>318.5044627482999</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>254.8360547723479</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M30" t="n">
-        <v>525.6784064119735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>506.7248157016067</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304692</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325504.581115928</v>
+        <v>3321491.971101935</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>175.9033742411859</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>370.0215880909413</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>96.20906681628156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.38890365519057</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>343.0908049403952</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>107.0120291964066</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.42978662487783</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>86.37868314456227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>280.6093375835822</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>252.9985976639358</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>76.34924850973032</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>149.6746290300082</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>172.50442708889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.77623638693879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.040720618689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>35.01782305658526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.07546534818459</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569569</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>105.3219429113322</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.6887504327739</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>166.8663745188122</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>56.49518623013036</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.3950627812467</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>98.79136808967741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1648.004869410818</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392135</v>
+        <v>1279.042352470406</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392135</v>
+        <v>1279.042352470406</v>
       </c>
       <c r="E2" t="n">
-        <v>552.8079389392135</v>
+        <v>893.254099872162</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>482.2681950825544</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2034.60470947494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.6427484063371</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1872.356261568097</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1680.670377394923</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1458.90376196445</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1458.90376196445</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>1458.90376196445</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.424878447885</v>
+        <v>1169.486591927489</v>
       </c>
       <c r="X4" t="n">
-        <v>996.4353275498672</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.6427484063371</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813979</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207228</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E5" t="n">
-        <v>866.0512886089841</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0653838193766</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818512</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179744</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>838.510600251837</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395012</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571081</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591977</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339167</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>935.322011573528</v>
+        <v>1637.877378051531</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1480.516858765518</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C8" t="n">
-        <v>1111.554341825106</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.554341825106</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805451</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>462.6853918125577</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>293.7492088846508</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>143.6325694723151</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>143.6325694723151</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6325694723151</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1776.108054118788</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.3338566427974</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1581.18466155292</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5539,22 +5539,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532801</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429802</v>
@@ -5667,10 +5667,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>2817.800993781636</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>2817.800993781636</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3445.398957336243</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>572.9069687101821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>424.993875127789</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232836</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>282.2891673205959</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232836</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2383.002557118213</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2980.381044744765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3026.711098656041</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4455.23555519765</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4235.634090220591</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3946.558863564789</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3946.558863564789</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3657.141693527828</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3429.152142629811</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3208.359563486281</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2940.5785039035</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2771.642320975594</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>2714.576476298694</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2566.663382716301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2419.773435218391</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3343.01954787727</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3122.22696873374</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>79.633216234938</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>71.47058471168904</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.79125956324827</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>251.5051752800057</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>64.34558267474665</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34.97276993489162</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.89590291932086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>45.44677382459263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.1599114828324</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92.12028678808198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.43691740069059</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.9182872993597</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698273.4890367516</v>
+        <v>698273.4890367517</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.803687093597656e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818186</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26441,10 +26441,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293121</v>
+        <v>-789924.9923293117</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982801</v>
+        <v>538819.7533982806</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982804</v>
+        <v>538819.7533982799</v>
       </c>
       <c r="E6" t="n">
-        <v>286900.0839429124</v>
+        <v>286552.7046885554</v>
       </c>
       <c r="F6" t="n">
-        <v>612312.5457502678</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="G6" t="n">
-        <v>612312.5457502679</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="H6" t="n">
-        <v>612312.5457502677</v>
+        <v>611965.1664959108</v>
       </c>
       <c r="I6" t="n">
-        <v>612312.5457502673</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="J6" t="n">
-        <v>394781.3433529901</v>
+        <v>394433.9640986336</v>
       </c>
       <c r="K6" t="n">
-        <v>612312.5457502676</v>
+        <v>611965.1664959107</v>
       </c>
       <c r="L6" t="n">
-        <v>612312.5457502679</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="M6" t="n">
-        <v>527257.5178147559</v>
+        <v>526910.1385603989</v>
       </c>
       <c r="N6" t="n">
-        <v>612312.5457502677</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="O6" t="n">
-        <v>612312.5457502682</v>
+        <v>611965.166495911</v>
       </c>
       <c r="P6" t="n">
-        <v>612312.5457502678</v>
+        <v>611965.1664959106</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.00460886699707e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.00460886699707e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.9726715005255</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>40.9001375625121</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>71.03775428234627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>34.5432490148568</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.83092071305822</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>279.225909459647</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944295</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>139.3309722444749</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>101.3210324886796</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>153.8774480777756</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>89.67655974929791</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>40.09439630143373</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.00460886699707e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,19 +32074,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32311,34 +32311,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927443</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32551,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>398.1179220955532</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>626.4629682828346</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,19 +32785,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>393.390434552222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>638.06652778494</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,22 +33970,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33994,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35743,7 +35743,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627482999</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36199,13 +36199,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>259.5635423156791</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>483.8667238383902</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8360547723479</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36454,13 +36454,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>506.7248157016067</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3321491.971101935</v>
+        <v>3323252.501404721</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>2.854028866653195</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>370.0215880909413</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.38890365519057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>191.2490250244969</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.0120291964066</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487783</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.39022724310102</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>252.9985976639358</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>276.7324014252744</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>18.02571356436873</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>149.6746290300082</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703249</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569569</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>105.3219429113322</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410818</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470406</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.042352470406</v>
+        <v>937.4502275783896</v>
       </c>
       <c r="E2" t="n">
-        <v>893.254099872162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>482.2681950825544</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450751</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.60470947494</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1872.356261568097</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1680.670377394923</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1458.90376196445</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1458.90376196445</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1458.90376196445</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.486591927489</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>941.4970410294717</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179744</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>838.510600251837</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395012</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571081</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591977</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339167</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051531</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153514</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009984</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.363819949361</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.401303008949</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1356044021989</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>779.1356044021989</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4846,10 +4846,10 @@
         <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1776.108054118788</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1554.341438688313</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1554.341438688313</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1554.341438688313</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245722</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403307</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5427,7 +5427,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>282.2891673205959</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192468</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,22 +7241,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194399</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>34.97276993489162</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.628625719525032e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>4.803687093597656e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818186</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26438,13 +26438,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="J4" t="n">
-        <v>12996.86414683036</v>
-      </c>
       <c r="K4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-789924.9923293117</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982806</v>
+        <v>538819.7533982799</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982799</v>
+        <v>538819.7533982801</v>
       </c>
       <c r="E6" t="n">
-        <v>286552.7046885554</v>
+        <v>286865.3460174777</v>
       </c>
       <c r="F6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.8078248315</v>
       </c>
       <c r="G6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.8078248326</v>
       </c>
       <c r="H6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.807824832</v>
       </c>
       <c r="I6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.8078248319</v>
       </c>
       <c r="J6" t="n">
-        <v>394433.9640986336</v>
+        <v>394746.6054275543</v>
       </c>
       <c r="K6" t="n">
-        <v>611965.1664959107</v>
+        <v>612277.8078248324</v>
       </c>
       <c r="L6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="M6" t="n">
-        <v>526910.1385603989</v>
+        <v>527222.7798893205</v>
       </c>
       <c r="N6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.807824832</v>
       </c>
       <c r="O6" t="n">
-        <v>611965.166495911</v>
+        <v>612277.807824832</v>
       </c>
       <c r="P6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.807824832</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.00460886699707e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.00460886699707e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>379.0763412056086</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40.9001375625121</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.5432490148568</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>174.0238667465106</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>279.225909459647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944295</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.747416080727</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>153.8774480777756</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.99869925319462</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>148.0000946946595</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>40.09439630143373</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.350276212680659e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.00460886699707e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.426059932593487e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543375</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>270.3182595810207</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997854</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>130.3364854949992</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>259.5635423156791</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
